--- a/data/ABSYZ/1.xlsx
+++ b/data/ABSYZ/1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\data\ABSYZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\Gender-classification-for-jobs\data\ABSYZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D240121-B86D-4F24-9A79-BA8960B070A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41047884-DD2E-4DA2-B840-D1B0449346D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,79 +25,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>21MAI0029</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>MANISHA DAS</t>
   </si>
   <si>
-    <t>21MAI0038</t>
-  </si>
-  <si>
     <t>SAERI DATTA</t>
   </si>
   <si>
-    <t>18MIS0075</t>
-  </si>
-  <si>
     <t>Sridevi R .</t>
   </si>
   <si>
-    <t>21MAI0010</t>
-  </si>
-  <si>
     <t>Nithya K john</t>
   </si>
   <si>
-    <t>18MIS0119</t>
-  </si>
-  <si>
     <t>BUVANESHVARAN S</t>
   </si>
   <si>
-    <t>21MAI0009</t>
-  </si>
-  <si>
     <t>VIKASH KUMAR</t>
   </si>
   <si>
-    <t>18MIS1082</t>
-  </si>
-  <si>
     <t>MUHAMMAD S .</t>
   </si>
   <si>
-    <t>18MIS7259</t>
-  </si>
-  <si>
     <t>MOVVA CHAITANYA</t>
   </si>
   <si>
-    <t>18MIS7030</t>
-  </si>
-  <si>
     <t>G SAI PAVAN .</t>
   </si>
   <si>
-    <t>18MIS1041</t>
-  </si>
-  <si>
     <t>SHUHEB SYED</t>
-  </si>
-  <si>
-    <t>Reg No</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,18 +71,12 @@
     </font>
     <font>
       <sz val="13.5"/>
-      <color rgb="FF222222"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="13.5"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,35 +86,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -170,50 +109,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -496,103 +398,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
     <col min="2" max="2" width="31.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="36" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="36" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="36" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="36" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="36" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="36" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="36" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="36" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
